--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -392,7 +392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
@@ -429,16 +429,6 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>Laptop</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Máy Tính</t>
         </is>
       </c>
     </row>
@@ -471,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
@@ -522,17 +512,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Summit-thumbn390.png</t>
+          <t>546049872.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DTT</t>
+          <t>LT01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lenovo Ideapad Gaming 3 15IAH7</t>
+          <t>Idead Pad</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -542,47 +532,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kg</t>
+          <t>Cái</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>99</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>idpad820.png</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Laptop Lenovo Ideapad 1 11IGL05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cái</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
